--- a/test_coding/test_api/api_test_cases/m_web_api_case.xlsx
+++ b/test_coding/test_api/api_test_cases/m_web_api_case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9360"/>
+    <workbookView windowWidth="21000" windowHeight="8495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="218">
   <si>
     <t>interface_name</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>reference_header</t>
+  </si>
+  <si>
+    <t>cookies</t>
   </si>
   <si>
     <t>article/zhibo.ms</t>
@@ -715,15 +718,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,6 +731,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -744,9 +747,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,7 +778,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,51 +807,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,7 +824,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,6 +837,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -859,7 +862,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,19 +892,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,13 +934,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,13 +958,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -931,37 +982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,61 +994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,6 +1016,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1053,32 +1056,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1109,20 +1109,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,15 +1153,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1158,10 +1161,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1170,16 +1173,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1188,119 +1191,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1312,6 +1315,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1664,10 +1670,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1684,7 +1690,7 @@
     <col min="11" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:11">
+    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1718,522 +1724,525 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>17</v>
+        <v>17</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>43</v>
+        <v>17</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H21">
         <v>200</v>
@@ -2241,25 +2250,25 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22">
         <v>200</v>
@@ -2267,25 +2276,25 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H23">
         <v>200</v>
@@ -2293,25 +2302,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H24">
         <v>200</v>
@@ -2319,25 +2328,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H25">
         <v>200</v>
@@ -2345,51 +2354,51 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H27">
         <v>200</v>
@@ -2397,25 +2406,25 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H28">
         <v>200</v>
@@ -2423,25 +2432,25 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H29">
         <v>200</v>
@@ -2449,25 +2458,25 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H30">
         <v>200</v>
@@ -2475,25 +2484,25 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H31">
         <v>200</v>
@@ -2501,25 +2510,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H32">
         <v>200</v>
@@ -2527,25 +2536,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H33">
         <v>200</v>
@@ -2553,25 +2562,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H34">
         <v>200</v>
@@ -2579,25 +2588,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H35">
         <v>200</v>
@@ -2605,25 +2614,25 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H36">
         <v>200</v>
@@ -2631,25 +2640,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H37">
         <v>200</v>
@@ -2657,25 +2666,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H38">
         <v>200</v>
@@ -2683,25 +2692,25 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H39">
         <v>200</v>
@@ -2709,25 +2718,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H40">
         <v>200</v>
@@ -2735,25 +2744,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H41">
         <v>200</v>
@@ -2761,25 +2770,25 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H42">
         <v>200</v>
@@ -2787,25 +2796,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H43">
         <v>200</v>
@@ -2813,25 +2822,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H44">
         <v>200</v>
@@ -2839,25 +2848,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H45">
         <v>200</v>
@@ -2865,25 +2874,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H46">
         <v>200</v>
@@ -2891,25 +2900,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H47">
         <v>200</v>
@@ -2917,25 +2926,25 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H48">
         <v>200</v>
@@ -2943,25 +2952,25 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H49">
         <v>200</v>
@@ -2969,25 +2978,25 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H50">
         <v>200</v>
@@ -2995,25 +3004,25 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H51">
         <v>200</v>
@@ -3021,25 +3030,25 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H52">
         <v>200</v>
@@ -3047,25 +3056,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H53">
         <v>200</v>
@@ -3073,25 +3082,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H54">
         <v>200</v>
@@ -3099,25 +3108,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H55">
         <v>200</v>
@@ -3125,25 +3134,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G56" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H56">
         <v>200</v>
@@ -3151,25 +3160,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H57">
         <v>200</v>
@@ -3177,25 +3186,25 @@
     </row>
     <row r="58" ht="72" spans="1:8">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E58" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H58">
         <v>200</v>
@@ -3203,25 +3212,25 @@
     </row>
     <row r="59" ht="144" spans="1:8">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H59">
         <v>200</v>
@@ -3229,25 +3238,25 @@
     </row>
     <row r="60" ht="86.4" spans="1:8">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H60">
         <v>200</v>
@@ -3255,25 +3264,25 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D61" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H61">
         <v>200</v>
@@ -3281,25 +3290,25 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H62">
         <v>200</v>
@@ -3307,25 +3316,25 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H63">
         <v>200</v>
@@ -3333,25 +3342,25 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H64">
         <v>200</v>
@@ -3359,25 +3368,25 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H65">
         <v>200</v>
@@ -3385,25 +3394,25 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H66">
         <v>200</v>
@@ -3411,25 +3420,25 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D67" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H67">
         <v>200</v>
@@ -3437,25 +3446,25 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H68">
         <v>200</v>
@@ -3463,25 +3472,25 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D69" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H69">
         <v>200</v>
@@ -3489,25 +3498,25 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D70" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H70">
         <v>200</v>
@@ -3515,25 +3524,25 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D71" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H71">
         <v>200</v>
@@ -3541,25 +3550,25 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D72" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H72">
         <v>200</v>
@@ -3567,25 +3576,25 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H73">
         <v>200</v>
@@ -3593,25 +3602,25 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G74" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H74">
         <v>200</v>
@@ -3619,25 +3628,25 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E75" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H75">
         <v>200</v>
@@ -3645,25 +3654,25 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H76">
         <v>200</v>
@@ -3671,25 +3680,25 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D77" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E77" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H77">
         <v>200</v>
@@ -3697,25 +3706,25 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F78" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H78">
         <v>200</v>
@@ -3723,25 +3732,25 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D79" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H79">
         <v>200</v>
@@ -3749,25 +3758,25 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H80">
         <v>200</v>
@@ -3775,25 +3784,25 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D81" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H81">
         <v>200</v>
@@ -3801,25 +3810,25 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D82" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H82">
         <v>200</v>
@@ -3827,25 +3836,25 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E83" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H83">
         <v>200</v>
@@ -3853,25 +3862,25 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D84" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H84">
         <v>200</v>
@@ -3879,25 +3888,25 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H85">
         <v>200</v>
@@ -3905,25 +3914,25 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D86" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H86">
         <v>200</v>
@@ -3931,25 +3940,25 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D87" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H87">
         <v>200</v>
@@ -3957,25 +3966,25 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F88" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H88">
         <v>200</v>
@@ -3983,25 +3992,25 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D89" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H89">
         <v>200</v>
@@ -4009,25 +4018,25 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D90" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H90">
         <v>200</v>
@@ -4035,25 +4044,25 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H91">
         <v>200</v>
@@ -4061,25 +4070,25 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D92" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H92">
         <v>200</v>
@@ -4087,25 +4096,25 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D93" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F93" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H93">
         <v>200</v>

--- a/test_coding/test_api/api_test_cases/m_web_api_case.xlsx
+++ b/test_coding/test_api/api_test_cases/m_web_api_case.xlsx
@@ -709,11 +709,25 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -724,24 +738,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,7 +769,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,37 +784,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -846,8 +822,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,145 +862,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,13 +886,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,13 +1012,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1053,24 +1053,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1110,21 +1092,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1153,6 +1120,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1161,10 +1161,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1173,137 +1173,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1315,9 +1315,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1673,7 +1670,7 @@
   <dimension ref="A1:L93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1724,7 +1721,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1750,7 +1747,7 @@
       <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1932,7 +1929,7 @@
       <c r="G9" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1958,7 +1955,7 @@
       <c r="G10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>44</v>
       </c>
     </row>

--- a/test_coding/test_api/api_test_cases/m_web_api_case.xlsx
+++ b/test_coding/test_api/api_test_cases/m_web_api_case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="217">
   <si>
     <t>interface_name</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>reference_header</t>
-  </si>
-  <si>
-    <t>cookies</t>
   </si>
   <si>
     <t>article/zhibo.ms</t>
@@ -709,9 +706,48 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,24 +761,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -754,87 +775,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -852,6 +795,60 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -862,7 +859,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,13 +901,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,13 +925,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,19 +1015,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,109 +1033,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,8 +1056,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,13 +1077,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,6 +1103,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,32 +1145,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1161,10 +1158,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1173,133 +1170,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1667,10 +1664,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L93"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1687,7 +1684,7 @@
     <col min="11" max="11" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:12">
+    <row r="1" s="1" customFormat="1" ht="15.6" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1721,525 +1718,522 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
         <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
         <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
         <v>53</v>
       </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
         <v>56</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
         <v>60</v>
       </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
         <v>62</v>
       </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
         <v>63</v>
-      </c>
-      <c r="E18" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" t="s">
         <v>65</v>
       </c>
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
         <v>66</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
         <v>68</v>
       </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
         <v>69</v>
-      </c>
-      <c r="E20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
         <v>71</v>
       </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21">
         <v>200</v>
@@ -2247,25 +2241,25 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
         <v>73</v>
       </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22">
         <v>200</v>
@@ -2273,25 +2267,25 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
         <v>75</v>
       </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>76</v>
-      </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H23">
         <v>200</v>
@@ -2299,25 +2293,25 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" t="s">
         <v>77</v>
       </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" t="s">
-        <v>78</v>
-      </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H24">
         <v>200</v>
@@ -2325,25 +2319,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
         <v>79</v>
       </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" t="s">
-        <v>80</v>
-      </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H25">
         <v>200</v>
@@ -2351,51 +2345,51 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
         <v>81</v>
       </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
         <v>82</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
         <v>84</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" t="s">
-        <v>85</v>
-      </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H27">
         <v>200</v>
@@ -2403,25 +2397,25 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
         <v>86</v>
       </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" t="s">
-        <v>87</v>
-      </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H28">
         <v>200</v>
@@ -2429,25 +2423,25 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
         <v>88</v>
       </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" t="s">
-        <v>89</v>
-      </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H29">
         <v>200</v>
@@ -2455,25 +2449,25 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
         <v>90</v>
       </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" t="s">
-        <v>91</v>
-      </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H30">
         <v>200</v>
@@ -2481,25 +2475,25 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
         <v>92</v>
       </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" t="s">
-        <v>93</v>
-      </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H31">
         <v>200</v>
@@ -2507,25 +2501,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H32">
         <v>200</v>
@@ -2533,25 +2527,25 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
         <v>95</v>
       </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>96</v>
-      </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H33">
         <v>200</v>
@@ -2559,25 +2553,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
         <v>97</v>
       </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>98</v>
-      </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H34">
         <v>200</v>
@@ -2585,25 +2579,25 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
         <v>99</v>
       </c>
-      <c r="B35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" t="s">
-        <v>100</v>
-      </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H35">
         <v>200</v>
@@ -2611,25 +2605,25 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
         <v>101</v>
       </c>
-      <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D36" t="s">
-        <v>102</v>
-      </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H36">
         <v>200</v>
@@ -2637,25 +2631,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H37">
         <v>200</v>
@@ -2663,25 +2657,25 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H38">
         <v>200</v>
@@ -2689,25 +2683,25 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H39">
         <v>200</v>
@@ -2715,25 +2709,25 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
         <v>106</v>
       </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D40" t="s">
-        <v>107</v>
-      </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H40">
         <v>200</v>
@@ -2741,25 +2735,25 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
         <v>108</v>
       </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" t="s">
-        <v>109</v>
-      </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H41">
         <v>200</v>
@@ -2767,25 +2761,25 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
         <v>110</v>
       </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" t="s">
-        <v>111</v>
-      </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H42">
         <v>200</v>
@@ -2793,25 +2787,25 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H43">
         <v>200</v>
@@ -2819,25 +2813,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
         <v>113</v>
       </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>20</v>
-      </c>
-      <c r="D44" t="s">
-        <v>114</v>
-      </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H44">
         <v>200</v>
@@ -2845,25 +2839,25 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
         <v>115</v>
       </c>
-      <c r="B45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" t="s">
-        <v>116</v>
-      </c>
       <c r="E45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H45">
         <v>200</v>
@@ -2871,25 +2865,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
         <v>117</v>
       </c>
-      <c r="B46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" t="s">
-        <v>118</v>
-      </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H46">
         <v>200</v>
@@ -2897,25 +2891,25 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
         <v>119</v>
       </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" t="s">
-        <v>20</v>
-      </c>
-      <c r="D47" t="s">
-        <v>120</v>
-      </c>
       <c r="E47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H47">
         <v>200</v>
@@ -2923,25 +2917,25 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
         <v>121</v>
       </c>
-      <c r="B48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" t="s">
-        <v>122</v>
-      </c>
       <c r="E48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H48">
         <v>200</v>
@@ -2949,25 +2943,25 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
         <v>123</v>
       </c>
-      <c r="B49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D49" t="s">
-        <v>124</v>
-      </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H49">
         <v>200</v>
@@ -2975,25 +2969,25 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
         <v>125</v>
       </c>
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>126</v>
       </c>
-      <c r="D50" t="s">
-        <v>127</v>
-      </c>
       <c r="E50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H50">
         <v>200</v>
@@ -3001,25 +2995,25 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>125</v>
+      </c>
+      <c r="D51" t="s">
         <v>128</v>
       </c>
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" t="s">
-        <v>129</v>
-      </c>
       <c r="E51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H51">
         <v>200</v>
@@ -3027,25 +3021,25 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" t="s">
         <v>130</v>
       </c>
-      <c r="B52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>131</v>
       </c>
-      <c r="D52" t="s">
-        <v>132</v>
-      </c>
       <c r="E52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H52">
         <v>200</v>
@@ -3053,25 +3047,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" t="s">
         <v>133</v>
       </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" t="s">
-        <v>131</v>
-      </c>
-      <c r="D53" t="s">
-        <v>134</v>
-      </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H53">
         <v>200</v>
@@ -3079,25 +3073,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" t="s">
         <v>135</v>
       </c>
-      <c r="B54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" t="s">
-        <v>136</v>
-      </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H54">
         <v>200</v>
@@ -3105,25 +3099,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" t="s">
         <v>137</v>
       </c>
-      <c r="B55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" t="s">
-        <v>131</v>
-      </c>
-      <c r="D55" t="s">
-        <v>138</v>
-      </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H55">
         <v>200</v>
@@ -3131,25 +3125,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" t="s">
         <v>139</v>
       </c>
-      <c r="B56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" t="s">
-        <v>140</v>
-      </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H56">
         <v>200</v>
@@ -3157,25 +3151,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" t="s">
         <v>141</v>
       </c>
-      <c r="B57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" t="s">
-        <v>142</v>
-      </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H57">
         <v>200</v>
@@ -3183,25 +3177,25 @@
     </row>
     <row r="58" ht="72" spans="1:8">
       <c r="A58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" t="s">
-        <v>131</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>144</v>
-      </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H58">
         <v>200</v>
@@ -3209,25 +3203,25 @@
     </row>
     <row r="59" ht="144" spans="1:8">
       <c r="A59" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="E59" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H59">
         <v>200</v>
@@ -3235,25 +3229,25 @@
     </row>
     <row r="60" ht="86.4" spans="1:8">
       <c r="A60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>148</v>
-      </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H60">
         <v>200</v>
@@ -3261,25 +3255,25 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" t="s">
         <v>149</v>
       </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" t="s">
-        <v>150</v>
-      </c>
       <c r="E61" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H61">
         <v>200</v>
@@ -3287,25 +3281,25 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
+        <v>150</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" t="s">
         <v>151</v>
       </c>
-      <c r="B62" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" t="s">
-        <v>131</v>
-      </c>
-      <c r="D62" t="s">
-        <v>152</v>
-      </c>
       <c r="E62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H62">
         <v>200</v>
@@ -3313,25 +3307,25 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" t="s">
         <v>153</v>
       </c>
-      <c r="B63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" t="s">
-        <v>154</v>
-      </c>
       <c r="E63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H63">
         <v>200</v>
@@ -3339,25 +3333,25 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" t="s">
         <v>155</v>
       </c>
-      <c r="B64" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" t="s">
-        <v>156</v>
-      </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H64">
         <v>200</v>
@@ -3365,25 +3359,25 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" t="s">
         <v>157</v>
       </c>
-      <c r="B65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" t="s">
-        <v>158</v>
-      </c>
       <c r="E65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H65">
         <v>200</v>
@@ -3391,25 +3385,25 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
+        <v>158</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" t="s">
         <v>159</v>
       </c>
-      <c r="B66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" t="s">
-        <v>131</v>
-      </c>
-      <c r="D66" t="s">
-        <v>160</v>
-      </c>
       <c r="E66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H66">
         <v>200</v>
@@ -3417,25 +3411,25 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" t="s">
         <v>161</v>
       </c>
-      <c r="B67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" t="s">
-        <v>162</v>
-      </c>
       <c r="E67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H67">
         <v>200</v>
@@ -3443,25 +3437,25 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
+        <v>162</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" t="s">
         <v>163</v>
       </c>
-      <c r="B68" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" t="s">
-        <v>164</v>
-      </c>
       <c r="E68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H68">
         <v>200</v>
@@ -3469,25 +3463,25 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" t="s">
         <v>165</v>
       </c>
-      <c r="B69" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" t="s">
-        <v>166</v>
-      </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H69">
         <v>200</v>
@@ -3495,25 +3489,25 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" t="s">
         <v>167</v>
       </c>
-      <c r="B70" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" t="s">
-        <v>131</v>
-      </c>
-      <c r="D70" t="s">
-        <v>168</v>
-      </c>
       <c r="E70" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H70">
         <v>200</v>
@@ -3521,25 +3515,25 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" t="s">
         <v>169</v>
       </c>
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" t="s">
-        <v>131</v>
-      </c>
-      <c r="D71" t="s">
-        <v>170</v>
-      </c>
       <c r="E71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G71" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H71">
         <v>200</v>
@@ -3547,25 +3541,25 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" t="s">
         <v>171</v>
       </c>
-      <c r="B72" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" t="s">
-        <v>131</v>
-      </c>
-      <c r="D72" t="s">
-        <v>172</v>
-      </c>
       <c r="E72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H72">
         <v>200</v>
@@ -3573,25 +3567,25 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" t="s">
         <v>173</v>
       </c>
-      <c r="B73" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>174</v>
       </c>
-      <c r="D73" t="s">
-        <v>175</v>
-      </c>
       <c r="E73" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H73">
         <v>200</v>
@@ -3599,25 +3593,25 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
+        <v>175</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" t="s">
         <v>176</v>
       </c>
-      <c r="B74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" t="s">
-        <v>174</v>
-      </c>
-      <c r="D74" t="s">
-        <v>177</v>
-      </c>
       <c r="E74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H74">
         <v>200</v>
@@ -3625,25 +3619,25 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
+        <v>177</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
         <v>178</v>
       </c>
-      <c r="B75" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>179</v>
       </c>
-      <c r="D75" t="s">
-        <v>180</v>
-      </c>
       <c r="E75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H75">
         <v>200</v>
@@ -3651,25 +3645,25 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" t="s">
         <v>181</v>
       </c>
-      <c r="B76" t="s">
-        <v>13</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>182</v>
       </c>
-      <c r="D76" t="s">
-        <v>183</v>
-      </c>
       <c r="E76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H76">
         <v>200</v>
@@ -3677,25 +3671,25 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" t="s">
         <v>184</v>
       </c>
-      <c r="B77" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" t="s">
-        <v>182</v>
-      </c>
-      <c r="D77" t="s">
-        <v>185</v>
-      </c>
       <c r="E77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H77">
         <v>200</v>
@@ -3703,25 +3697,25 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" t="s">
+        <v>181</v>
+      </c>
+      <c r="D78" t="s">
         <v>186</v>
       </c>
-      <c r="B78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" t="s">
-        <v>182</v>
-      </c>
-      <c r="D78" t="s">
-        <v>187</v>
-      </c>
       <c r="E78" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H78">
         <v>200</v>
@@ -3729,25 +3723,25 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" t="s">
         <v>188</v>
       </c>
-      <c r="B79" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" t="s">
-        <v>182</v>
-      </c>
-      <c r="D79" t="s">
-        <v>189</v>
-      </c>
       <c r="E79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H79">
         <v>200</v>
@@ -3755,25 +3749,25 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" t="s">
+        <v>181</v>
+      </c>
+      <c r="D80" t="s">
         <v>190</v>
       </c>
-      <c r="B80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" t="s">
-        <v>182</v>
-      </c>
-      <c r="D80" t="s">
-        <v>191</v>
-      </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H80">
         <v>200</v>
@@ -3781,25 +3775,25 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81" t="s">
         <v>192</v>
       </c>
-      <c r="B81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" t="s">
-        <v>182</v>
-      </c>
-      <c r="D81" t="s">
-        <v>193</v>
-      </c>
       <c r="E81" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H81">
         <v>200</v>
@@ -3807,25 +3801,25 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
+        <v>193</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" t="s">
+        <v>181</v>
+      </c>
+      <c r="D82" t="s">
         <v>194</v>
       </c>
-      <c r="B82" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" t="s">
-        <v>182</v>
-      </c>
-      <c r="D82" t="s">
-        <v>195</v>
-      </c>
       <c r="E82" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H82">
         <v>200</v>
@@ -3833,25 +3827,25 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
+        <v>195</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83" t="s">
         <v>196</v>
       </c>
-      <c r="B83" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" t="s">
-        <v>182</v>
-      </c>
-      <c r="D83" t="s">
-        <v>197</v>
-      </c>
       <c r="E83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H83">
         <v>200</v>
@@ -3859,25 +3853,25 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
+        <v>197</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" t="s">
         <v>198</v>
       </c>
-      <c r="B84" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" t="s">
-        <v>182</v>
-      </c>
-      <c r="D84" t="s">
-        <v>199</v>
-      </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H84">
         <v>200</v>
@@ -3885,25 +3879,25 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H85">
         <v>200</v>
@@ -3911,25 +3905,25 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
+        <v>201</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" t="s">
         <v>202</v>
       </c>
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" t="s">
-        <v>182</v>
-      </c>
-      <c r="D86" t="s">
-        <v>203</v>
-      </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G86" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H86">
         <v>200</v>
@@ -3937,25 +3931,25 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" t="s">
         <v>204</v>
       </c>
-      <c r="B87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" t="s">
-        <v>182</v>
-      </c>
-      <c r="D87" t="s">
-        <v>205</v>
-      </c>
       <c r="E87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H87">
         <v>200</v>
@@ -3963,25 +3957,25 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" t="s">
         <v>206</v>
       </c>
-      <c r="B88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" t="s">
-        <v>182</v>
-      </c>
-      <c r="D88" t="s">
-        <v>207</v>
-      </c>
       <c r="E88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H88">
         <v>200</v>
@@ -3989,25 +3983,25 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" t="s">
+        <v>181</v>
+      </c>
+      <c r="D89" t="s">
         <v>208</v>
       </c>
-      <c r="B89" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" t="s">
-        <v>182</v>
-      </c>
-      <c r="D89" t="s">
-        <v>209</v>
-      </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H89">
         <v>200</v>
@@ -4015,25 +4009,25 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" t="s">
+        <v>181</v>
+      </c>
+      <c r="D90" t="s">
         <v>210</v>
       </c>
-      <c r="B90" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" t="s">
-        <v>182</v>
-      </c>
-      <c r="D90" t="s">
-        <v>211</v>
-      </c>
       <c r="E90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H90">
         <v>200</v>
@@ -4041,25 +4035,25 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>181</v>
+      </c>
+      <c r="D91" t="s">
         <v>212</v>
       </c>
-      <c r="B91" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" t="s">
-        <v>182</v>
-      </c>
-      <c r="D91" t="s">
-        <v>213</v>
-      </c>
       <c r="E91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H91">
         <v>200</v>
@@ -4067,25 +4061,25 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
+        <v>213</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
+      <c r="D92" t="s">
         <v>214</v>
       </c>
-      <c r="B92" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" t="s">
-        <v>182</v>
-      </c>
-      <c r="D92" t="s">
-        <v>215</v>
-      </c>
       <c r="E92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H92">
         <v>200</v>
@@ -4093,25 +4087,25 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
+        <v>215</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" t="s">
         <v>216</v>
       </c>
-      <c r="B93" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" t="s">
-        <v>182</v>
-      </c>
-      <c r="D93" t="s">
-        <v>217</v>
-      </c>
       <c r="E93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H93">
         <v>200</v>
